--- a/biology/Botanique/Androsace_carnée/Androsace_carnée.xlsx
+++ b/biology/Botanique/Androsace_carnée/Androsace_carnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Androsace_carn%C3%A9e</t>
+          <t>Androsace_carnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androsace carnea
 L'androsace carnée ou androsace couleur de chair (Androsace carnea) est une espèce de plantes à fleurs de la famille des Primulaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Androsace_carn%C3%A9e</t>
+          <t>Androsace_carnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées naines mesurant de 2 à 8 cm de hauteur, à souche gazonnante, formant des touffes.
 Les feuilles, entières, glabres ou quelquefois poilues, forment des rosettes basales denses.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Androsace_carn%C3%A9e</t>
+          <t>Androsace_carnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Période de floraison : juin à août dès la fonte des neiges.
 Habitat : sols acides de 1 400 à 3 000 m d'altitude. On la rencontre dans les éboulis, les pâturages, les pelouses, près des rochers et des combes à neige.</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Androsace_carn%C3%A9e</t>
+          <t>Androsace_carnée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpes occidentales en France, en Suisse et en Italie, Pyrénées en France et en Espagne, ainsi que dans les Vosges et le massif Central.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Androsace_carn%C3%A9e</t>
+          <t>Androsace_carnée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Flora Europaea[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Flora Europaea :
 Androsace carnea subsp. carnea
 Androsace carnea subsp.  brigantiaca (Jord. &amp; Fourr.) I.K.Ferguson (Sud-ouest des Alpes)
 Androsace carnea subsp. laggeri (A.Huet) Nyman (Massif Central et Pyrénées)
